--- a/Raw Input Data/Template/SearchWarrant.xlsx
+++ b/Raw Input Data/Template/SearchWarrant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrilyau/Documents/FORMS/HASE/Fraud Investigation/Markdown-workshop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F066CE-77A7-1145-A33D-F425850E37DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1FAC2B-4869-4E54-A182-8C52CF1899C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="-25820" windowWidth="35840" windowHeight="20200" xr2:uid="{2E1C8D8E-ADF5-A447-A84C-DD0DD65940D4}"/>
+    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2E1C8D8E-ADF5-A447-A84C-DD0DD65940D4}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchWarrant-Params" sheetId="3" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>Template_Var</t>
   </si>
@@ -340,37 +340,34 @@
     <t>366■■■■■</t>
   </si>
   <si>
-    <t>17/F, Hang Seng Tower 33, Wai Yip Street, Kowloon Bay, Kowloon, Hong Kong</t>
-  </si>
-  <si>
-    <t>024N000000000000002</t>
-  </si>
-  <si>
-    <t>Obtaining Property By Deception, contrary to Section 17 (1 ) of the Theft Ordinance, Cap. 210</t>
-  </si>
-  <si>
-    <t>PC 6■■■■</t>
-  </si>
-  <si>
-    <t>MOSRN2401■■■■</t>
-  </si>
-  <si>
-    <t>4■■■/2024</t>
-  </si>
-  <si>
-    <t>6■■■/2024</t>
-  </si>
-  <si>
-    <t>Police Constable 61■■■ KWAN ■■■■■■ of District Investigation Team 8, Shatin District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111-111111-101 </t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>David</t>
+    <t>PC ■■■■■</t>
+  </si>
+  <si>
+    <t>POLICEREF1</t>
+  </si>
+  <si>
+    <t>4■■</t>
+  </si>
+  <si>
+    <t>000■■■</t>
+  </si>
+  <si>
+    <t>Detective Police Constable 2■■■■ LO ■■■-■■■■ of Kowloon City District</t>
+  </si>
+  <si>
+    <t>AML - Financial Crime Compliance, 8/F, Hang Seng 113, 113 Argyle Street, Mongkok, Kowloon, Hong Kong</t>
+  </si>
+  <si>
+    <t>111-111111-101</t>
+  </si>
+  <si>
+    <t>Obtaining Property By Deception, contrary to Section 17 (1 ) of the Theft Ordinance, Cap. 210, Laws of Hong Kong</t>
+  </si>
+  <si>
+    <t>2025-2-14</t>
+  </si>
+  <si>
+    <t>Ko Wai-hung</t>
   </si>
 </sst>
 </file>
@@ -393,18 +390,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -419,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -429,7 +420,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,19 +754,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F37D5EF-1CB4-7944-B493-3744B4F4680C}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -784,15 +774,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -800,47 +800,47 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -848,31 +848,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -880,89 +880,89 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
-      <c r="B19">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
   </sheetData>
@@ -978,84 +978,84 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1069,17 +1069,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B4D2FA-20FE-E543-BD9F-914FDC417667}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1090,18 +1090,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1136,27 +1136,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1174,42 +1174,42 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1227,13 +1227,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1241,49 +1241,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>'SearchWarrant-Template'!B6&amp;"&lt;u&gt;"&amp;'SearchWarrant-Params'!B4&amp;"&lt;/u&gt;"</f>
-        <v>Case No. &lt;u&gt;MOSRN2401■■■■&lt;/u&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>Case No. &lt;u&gt;POLICEREF1&lt;/u&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f>'SearchWarrant-Template'!B7&amp;"&lt;u&gt;"&amp;'SearchWarrant-Params'!B5&amp;"&lt;/u&gt;"</f>
-        <v>Information No. &lt;u&gt;4■■■/2024&lt;/u&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>Information No. &lt;u&gt;4■■&lt;/u&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f>'SearchWarrant-Template'!B8&amp;"&lt;u&gt;"&amp;'SearchWarrant-Params'!B6&amp;"&lt;/u&gt;"</f>
-        <v>Writ No. &lt;u&gt;6■■■/2024&lt;/u&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>Writ No. &lt;u&gt;000■■■&lt;/u&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>"**"&amp;'SearchWarrant-Template'!B10&amp;"&lt;u&gt;"&amp;'SearchWarrant-Params'!B7&amp;"&lt;/u&gt;"&amp;'SearchWarrant-Template'!B11&amp;"**"</f>
-        <v>**IN THE MAGISTRATE'S COURT AT &lt;u&gt;SHA TIN&lt;/u&gt; HONGKONG**</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>**IN THE MAGISTRATE'S COURT AT &lt;u&gt;KOWLOON CITY&lt;/u&gt; HONGKONG**</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>"**&lt;u&gt;"&amp;'SearchWarrant-Params'!B8&amp;"&lt;/u&gt;**"</f>
-        <v>**&lt;u&gt;Police Constable 61■■■ KWAN ■■■■■■ of District Investigation Team 8, Shatin District&lt;/u&gt;**</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>**&lt;u&gt;Detective Police Constable 2■■■■ LO ■■■-■■■■ of Kowloon City District&lt;/u&gt;**</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>"**&lt;u&gt;"&amp;'SearchWarrant-Params'!B9&amp;"&lt;/u&gt;**"</f>
         <v>**&lt;u&gt;Hang Seng Bank Limited&lt;/u&gt;**</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>"**&lt;u&gt;"&amp;'SearchWarrant-Params'!B10&amp;"&lt;/u&gt;**"</f>
-        <v>**&lt;u&gt;17/F, Hang Seng Tower 33, Wai Yip Street, Kowloon Bay, Kowloon, Hong Kong&lt;/u&gt;**</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>**&lt;u&gt;AML - Financial Crime Compliance, 8/F, Hang Seng 113, 113 Argyle Street, Mongkok, Kowloon, Hong Kong&lt;/u&gt;**</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str" cm="1">
         <f t="array" ref="B9">"**&lt;u&gt;" &amp; _xlfn.LET(
   _xlpm.items,   _xlfn._xlws.FILTER('SearchWarrant-Requested-Items'!A2:A20, 'SearchWarrant-Requested-Items'!B2:B20="Y"),
@@ -1294,16 +1294,16 @@
   _xlpm.textOut, _xlpm.numbering &amp; _xlpm.combined,
   _xlfn.TEXTJOIN(" ", TRUE, _xlpm.textOut)
 ) &amp; "&lt;/u&gt;**"</f>
-        <v>**&lt;u&gt;(1) the opening mandates &amp; personal identity documents of bank accounts no.:  024N000000000000002 (2) the above mentioned accounts transaction record from opening date to present, (3) all the swift message/ voucher,&lt;/u&gt;**</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>**&lt;u&gt;(1) the opening mandates &amp; personal identity documents of bank accounts no.:  111-111111-101 (2) the above mentioned accounts transaction record from opening date to present, (3) all the swift message/ voucher,&lt;/u&gt;**</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>"**&lt;u&gt;"&amp;'SearchWarrant-Params'!B12&amp;"&lt;/u&gt;**"</f>
-        <v>**&lt;u&gt;Obtaining Property By Deception, contrary to Section 17 (1 ) of the Theft Ordinance, Cap. 210&lt;/u&gt;**</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>**&lt;u&gt;Obtaining Property By Deception, contrary to Section 17 (1 ) of the Theft Ordinance, Cap. 210, Laws of Hong Kong&lt;/u&gt;**</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="str" cm="1">
         <f t="array" ref="B11">_xlfn.LET(
   _xlpm.opts, 'Static-OffenseStatus'!A1:A4,
@@ -1333,28 +1333,28 @@
         <v>has been committed ~~/is reasonably to have been commited/to be about to be committed/to be intended to be committed~~</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>IF('SearchWarrant-Params'!B14="Y", 'SearchWarrant-Template'!B19 &amp; 'SearchWarrant-Template'!B20, 'SearchWarrant-Template'!B19 &amp; "~~" &amp; 'SearchWarrant-Template'!B20 &amp; "~~") &amp; 'SearchWarrant-Template'!B21</f>
-        <v xml:space="preserve">You are herewith empowered to enter and if necessary to break into or forcibly enter the said building or place, namely </v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">You are herewith empowered to enter ~~and if necessary to break into or forcibly enter~~ the said building or place, namely </v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
         <f>IF('SearchWarrant-Params'!B15="Y", 'SearchWarrant-Template'!B24, "~~" &amp; 'SearchWarrant-Template'!B24 &amp; "~~")</f>
-        <v>~~and to detain during such period as is reasonably required to permit such a search to be carried out, any person who may appear to have such book or other document or portion thereof or extract therefrom or other article in his possession or under his control and who, if not so detained, might prejudice the purpose of the search.~~</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>and to detain during such period as is reasonably required to permit such a search to be carried out, any person who may appear to have such book or other document or portion thereof or extract therefrom or other article in his possession or under his control and who, if not so detained, might prejudice the purpose of the search.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>'SearchWarrant-Template'!B25&amp;"&lt;u&gt; **"&amp;'SearchWarrant-Params'!B16&amp;"** &lt;/u&gt;"&amp;'SearchWarrant-Template'!B26</f>
-        <v>This warrant can only be executed on or before &lt;u&gt; **2024-10-04** &lt;/u&gt; after which date it will automatically lapse unless it has been extend.</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>This warrant can only be executed on or before &lt;u&gt; **2025-2-14** &lt;/u&gt; after which date it will automatically lapse unless it has been extend.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>'SearchWarrant-Template'!B27&amp;"&lt;u&gt; **"&amp;'SearchWarrant-Params'!B17 &amp; IF(AND(MOD('SearchWarrant-Params'!B17,100)&gt;=11,MOD('SearchWarrant-Params'!B17,100)&lt;=13),"&lt;sup&gt;th&lt;/sup&gt;",IF(MOD('SearchWarrant-Params'!B17,10)=1, "&lt;sup&gt;st&lt;/sup&gt;",IF(MOD('SearchWarrant-Params'!B17,10)=2, "&lt;sup&gt;nd&lt;/sup&gt;",IF(MOD('SearchWarrant-Params'!B17,10)=3, "&lt;sup&gt;rd&lt;/sup&gt;","&lt;sup&gt;th&lt;/sup&gt;"))))&amp;"**&lt;/u&gt;"&amp;'SearchWarrant-Template'!B28&amp;"&lt;u&gt; **"&amp;'SearchWarrant-Params'!B18&amp;"**&lt;/u&gt; "&amp;'SearchWarrant-Params'!B19</f>
-        <v>Dated this &lt;u&gt; **4&lt;sup&gt;th&lt;/sup&gt;**&lt;/u&gt; day of &lt;u&gt; **September**&lt;/u&gt; 2024</v>
+        <v>Dated this &lt;u&gt; **15&lt;sup&gt;th&lt;/sup&gt;**&lt;/u&gt; day of &lt;u&gt; **January**&lt;/u&gt; 2025</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1371,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1385,147 +1385,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="63" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1543,114 +1543,114 @@
       <selection sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.33203125" customWidth="1"/>
+    <col min="1" max="1" width="78.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'SearchWarrant-Template'!B2</f>
         <v>Police Force Ordinance</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'SearchWarrant-Template'!B3</f>
         <v>(Cap. 232)</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'SearchWarrant-Template'!B4&amp;'SearchWarrant-Params'!B2</f>
-        <v>Contact Person: PC 6■■■■</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>Contact Person: PC ■■■■■</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'SearchWarrant-Template'!B5&amp;'SearchWarrant-Params'!B3</f>
         <v>Contact Number: 366■■■■■</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'SearchWarrant-Runtime-Params'!B2</f>
-        <v>Case No. &lt;u&gt;MOSRN2401■■■■&lt;/u&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>Case No. &lt;u&gt;POLICEREF1&lt;/u&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'SearchWarrant-Runtime-Params'!B3</f>
-        <v>Information No. &lt;u&gt;4■■■/2024&lt;/u&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>Information No. &lt;u&gt;4■■&lt;/u&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'SearchWarrant-Runtime-Params'!B4</f>
-        <v>Writ No. &lt;u&gt;6■■■/2024&lt;/u&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>Writ No. &lt;u&gt;000■■■&lt;/u&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'SearchWarrant-Template'!B9</f>
         <v>**SEARCH WARRANT**</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'SearchWarrant-Runtime-Params'!B5</f>
-        <v>**IN THE MAGISTRATE'S COURT AT &lt;u&gt;SHA TIN&lt;/u&gt; HONGKONG**</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>**IN THE MAGISTRATE'S COURT AT &lt;u&gt;KOWLOON CITY&lt;/u&gt; HONGKONG**</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'SearchWarrant-Template'!B12</f>
         <v>To each and all of the Police Officers of Hong Kong</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>'SearchWarrant-Template'!B13&amp;'SearchWarrant-Runtime-Params'!B6&amp;'SearchWarrant-Template'!B14&amp;'SearchWarrant-Runtime-Params'!B7&amp;'SearchWarrant-Template'!B15&amp;'SearchWarrant-Runtime-Params'!B8&amp;'SearchWarrant-Template'!B16&amp;'SearchWarrant-Runtime-Params'!B9&amp;'SearchWarrant-Template'!B17&amp;'SearchWarrant-Runtime-Params'!B10&amp;'SearchWarrant-Template'!B18&amp;'SearchWarrant-Runtime-Params'!B11&amp;"."</f>
-        <v>INFORMATION has this day been laid before the undersigned, a magistrate of Hong Kong, on oath by **&lt;u&gt;Police Constable 61■■■ KWAN ■■■■■■ of District Investigation Team 8, Shatin District&lt;/u&gt;**, that there is reasonable cause to suspect that there is in a building or place, namely, **&lt;u&gt;Hang Seng Bank Limited&lt;/u&gt;** and situated at **&lt;u&gt;17/F, Hang Seng Tower 33, Wai Yip Street, Kowloon Bay, Kowloon, Hong Kong&lt;/u&gt;** certain books or other documents, or any portion or extract therefrom, or any other article, namely, **&lt;u&gt;(1) the opening mandates &amp; personal identity documents of bank accounts no.:  024N000000000000002 (2) the above mentioned accounts transaction record from opening date to present, (3) all the swift message/ voucher,&lt;/u&gt;** which are likely to be of value (whether by itself or together with anything else) to the investigation of an offence, namely, **&lt;u&gt;Obtaining Property By Deception, contrary to Section 17 (1 ) of the Theft Ordinance, Cap. 210&lt;/u&gt;** that has been committed or that is reasonably suspected has been committed ~~/is reasonably to have been commited/to be about to be committed/to be intended to be committed~~.</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="204" x14ac:dyDescent="0.2">
+        <v>INFORMATION has this day been laid before the undersigned, a magistrate of Hong Kong, on oath by **&lt;u&gt;Detective Police Constable 2■■■■ LO ■■■-■■■■ of Kowloon City District&lt;/u&gt;**, that there is reasonable cause to suspect that there is in a building or place, namely, **&lt;u&gt;Hang Seng Bank Limited&lt;/u&gt;** and situated at **&lt;u&gt;AML - Financial Crime Compliance, 8/F, Hang Seng 113, 113 Argyle Street, Mongkok, Kowloon, Hong Kong&lt;/u&gt;** certain books or other documents, or any portion or extract therefrom, or any other article, namely, **&lt;u&gt;(1) the opening mandates &amp; personal identity documents of bank accounts no.:  111-111111-101 (2) the above mentioned accounts transaction record from opening date to present, (3) all the swift message/ voucher,&lt;/u&gt;** which are likely to be of value (whether by itself or together with anything else) to the investigation of an offence, namely, **&lt;u&gt;Obtaining Property By Deception, contrary to Section 17 (1 ) of the Theft Ordinance, Cap. 210, Laws of Hong Kong&lt;/u&gt;** that has been committed or that is reasonably suspected has been committed ~~/is reasonably to have been commited/to be about to be committed/to be intended to be committed~~.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="189" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>'SearchWarrant-Runtime-Params'!B12&amp;'SearchWarrant-Runtime-Params'!B7&amp;'SearchWarrant-Template'!B15&amp;'SearchWarrant-Runtime-Params'!B8&amp;'SearchWarrant-Template'!B22&amp;'SearchWarrant-Runtime-Params'!B9&amp;'SearchWarrant-Template'!B23&amp;'SearchWarrant-Runtime-Params'!B13</f>
-        <v>You are herewith empowered to enter and if necessary to break into or forcibly enter the said building or place, namely **&lt;u&gt;Hang Seng Bank Limited&lt;/u&gt;** and situated at **&lt;u&gt;17/F, Hang Seng Tower 33, Wai Yip Street, Kowloon Bay, Kowloon, Hong Kong&lt;/u&gt;** and to search for and take possession of the said books or other documents or portion of or extract therefrom or any other article, namely **&lt;u&gt;(1) the opening mandates &amp; personal identity documents of bank accounts no.:  024N000000000000002 (2) the above mentioned accounts transaction record from opening date to present, (3) all the swift message/ voucher,&lt;/u&gt;** which may be found therein; ~~and to detain during such period as is reasonably required to permit such a search to be carried out, any person who may appear to have such book or other document or portion thereof or extract therefrom or other article in his possession or under his control and who, if not so detained, might prejudice the purpose of the search.~~</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+        <v>You are herewith empowered to enter ~~and if necessary to break into or forcibly enter~~ the said building or place, namely **&lt;u&gt;Hang Seng Bank Limited&lt;/u&gt;** and situated at **&lt;u&gt;AML - Financial Crime Compliance, 8/F, Hang Seng 113, 113 Argyle Street, Mongkok, Kowloon, Hong Kong&lt;/u&gt;** and to search for and take possession of the said books or other documents or portion of or extract therefrom or any other article, namely **&lt;u&gt;(1) the opening mandates &amp; personal identity documents of bank accounts no.:  111-111111-101 (2) the above mentioned accounts transaction record from opening date to present, (3) all the swift message/ voucher,&lt;/u&gt;** which may be found therein; and to detain during such period as is reasonably required to permit such a search to be carried out, any person who may appear to have such book or other document or portion thereof or extract therefrom or other article in his possession or under his control and who, if not so detained, might prejudice the purpose of the search.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>'SearchWarrant-Runtime-Params'!B14</f>
-        <v>This warrant can only be executed on or before &lt;u&gt; **2024-10-04** &lt;/u&gt; after which date it will automatically lapse unless it has been extend.</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>This warrant can only be executed on or before &lt;u&gt; **2025-2-14** &lt;/u&gt; after which date it will automatically lapse unless it has been extend.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'SearchWarrant-Runtime-Params'!B15</f>
-        <v>Dated this &lt;u&gt; **4&lt;sup&gt;th&lt;/sup&gt;**&lt;/u&gt; day of &lt;u&gt; **September**&lt;/u&gt; 2024</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>Dated this &lt;u&gt; **15&lt;sup&gt;th&lt;/sup&gt;**&lt;/u&gt; day of &lt;u&gt; **January**&lt;/u&gt; 2025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>'SearchWarrant-Params'!B20</f>
-        <v>David</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>Ko Wai-hung</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'SearchWarrant-Params'!B21</f>
         <v>Magistrate</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>'SearchWarrant-Template'!B29</f>
         <v>(\*delete as appropriate)</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>'SearchWarrant-Template'!B30</f>
         <v>Pol.866 (Rev.2001)</v>
